--- a/kombinasi-parameter.xlsx
+++ b/kombinasi-parameter.xlsx
@@ -460,10 +460,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.01268866595697321</v>
+        <v>0.01267298724349231</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1392553411934474</v>
+        <v>0.1345082618398209</v>
       </c>
     </row>
     <row r="3">
@@ -476,10 +476,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.01243640977430017</v>
+        <v>0.01247263630877619</v>
       </c>
       <c r="D3" t="n">
-        <v>0.122354512753552</v>
+        <v>0.147602502409726</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.01267024583808363</v>
+        <v>0.01248394378320607</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1336455602351933</v>
+        <v>0.1461003360478845</v>
       </c>
     </row>
     <row r="5">
@@ -508,10 +508,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.01253895016310558</v>
+        <v>0.01268090072968235</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1345330731917734</v>
+        <v>0.1349242121389467</v>
       </c>
     </row>
     <row r="6">
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.01235893702338615</v>
+        <v>0.0125321398348841</v>
       </c>
       <c r="D6" t="n">
-        <v>0.143439063674783</v>
+        <v>0.1426348017707263</v>
       </c>
     </row>
     <row r="7">
@@ -540,10 +540,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.01240412110131081</v>
+        <v>0.01247766205709274</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1520728113716596</v>
+        <v>0.1340423757082795</v>
       </c>
     </row>
     <row r="8">
@@ -556,10 +556,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.01271998458733297</v>
+        <v>0.01268604518973256</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1378321960976679</v>
+        <v>0.1235848050819684</v>
       </c>
     </row>
     <row r="9">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.01234225977263222</v>
+        <v>0.01233074054989504</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1451797422072659</v>
+        <v>0.1457192188460533</v>
       </c>
     </row>
     <row r="10">
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.01239047496426493</v>
+        <v>0.01253021587553906</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1500213331963918</v>
+        <v>0.1354191316521331</v>
       </c>
     </row>
     <row r="11">
@@ -604,10 +604,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.01251646175929537</v>
+        <v>0.01253083562287055</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1356915204900585</v>
+        <v>0.1436550075264826</v>
       </c>
     </row>
     <row r="12">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.01241192949077829</v>
+        <v>0.01228780937317299</v>
       </c>
       <c r="D12" t="n">
-        <v>0.141746423322044</v>
+        <v>0.1396199995524263</v>
       </c>
     </row>
     <row r="13">
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.01225320010905294</v>
+        <v>0.01256491548113831</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1376487461671437</v>
+        <v>0.1481170950278844</v>
       </c>
     </row>
     <row r="14">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0003388247796340705</v>
+        <v>0.0005596766602375532</v>
       </c>
       <c r="D14" t="n">
-        <v>0.001147227237409312</v>
+        <v>0.001834731448556565</v>
       </c>
     </row>
     <row r="15">
@@ -668,10 +668,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.000294462071208615</v>
+        <v>0.0002900480617863152</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001153663344591958</v>
+        <v>0.001247266616850887</v>
       </c>
     </row>
     <row r="16">
@@ -684,10 +684,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0003103000308827127</v>
+        <v>0.0003092557635682169</v>
       </c>
       <c r="D16" t="n">
-        <v>0.00149827729432193</v>
+        <v>0.001505819991333027</v>
       </c>
     </row>
     <row r="17">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0003754067898900184</v>
+        <v>0.0003494621268058936</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001569163382742299</v>
+        <v>0.001780643823958474</v>
       </c>
     </row>
     <row r="18">
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0003112973176379057</v>
+        <v>0.0002924265756195233</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001211384662159093</v>
+        <v>0.001593948597062941</v>
       </c>
     </row>
     <row r="19">
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.0003224982165566834</v>
+        <v>0.0002823712707701305</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001029329522742494</v>
+        <v>0.001429614913171438</v>
       </c>
     </row>
     <row r="20">
@@ -748,10 +748,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0004455358813012861</v>
+        <v>0.0002974907370054559</v>
       </c>
       <c r="D20" t="n">
-        <v>0.001236181905531414</v>
+        <v>0.0009821898125316182</v>
       </c>
     </row>
     <row r="21">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.0003064383365124566</v>
+        <v>0.0002985842547288534</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0009628089036384266</v>
+        <v>0.001318276099133471</v>
       </c>
     </row>
     <row r="22">
@@ -780,10 +780,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.0002941255929540167</v>
+        <v>0.0003194265029303831</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0009808409181646747</v>
+        <v>0.0009527312372795191</v>
       </c>
     </row>
     <row r="23">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.0003318107574907042</v>
+        <v>0.0003392010495028369</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0009736981927034483</v>
+        <v>0.001009131609525991</v>
       </c>
     </row>
     <row r="24">
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.0003754759880344141</v>
+        <v>0.0002881129095267045</v>
       </c>
       <c r="D24" t="n">
-        <v>0.00103045168910048</v>
+        <v>0.001185480599317138</v>
       </c>
     </row>
     <row r="25">
@@ -828,10 +828,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.0003108715356251047</v>
+        <v>0.0002888150980428167</v>
       </c>
       <c r="D25" t="n">
-        <v>0.001056265956658411</v>
+        <v>0.001038946871955126</v>
       </c>
     </row>
   </sheetData>

--- a/kombinasi-parameter.xlsx
+++ b/kombinasi-parameter.xlsx
@@ -460,10 +460,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.01267298724349231</v>
+        <v>0.01256600805647569</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1345082618398209</v>
+        <v>0.1290995419433672</v>
       </c>
     </row>
     <row r="3">
@@ -476,10 +476,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.01247263630877619</v>
+        <v>0.01245881799506406</v>
       </c>
       <c r="D3" t="n">
-        <v>0.147602502409726</v>
+        <v>0.1480364705601784</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.01248394378320607</v>
+        <v>0.01238205773781424</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1461003360478845</v>
+        <v>0.1507691218428416</v>
       </c>
     </row>
     <row r="5">
@@ -508,10 +508,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.01268090072968235</v>
+        <v>0.01277194001188833</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1349242121389467</v>
+        <v>0.1254385291305307</v>
       </c>
     </row>
     <row r="6">
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0125321398348841</v>
+        <v>0.0123957964999933</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1426348017707263</v>
+        <v>0.1426935898114557</v>
       </c>
     </row>
     <row r="7">
@@ -540,10 +540,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.01247766205709274</v>
+        <v>0.0129145505927401</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1340423757082795</v>
+        <v>0.1356652883225924</v>
       </c>
     </row>
     <row r="8">
@@ -556,10 +556,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.01268604518973256</v>
+        <v>0.0126269775608631</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1235848050819684</v>
+        <v>0.1302944425850698</v>
       </c>
     </row>
     <row r="9">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.01233074054989504</v>
+        <v>0.01251337935586702</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1457192188460533</v>
+        <v>0.1449966747058581</v>
       </c>
     </row>
     <row r="10">
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.01253021587553906</v>
+        <v>0.01305218939095327</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1354191316521331</v>
+        <v>0.1349161402003406</v>
       </c>
     </row>
     <row r="11">
@@ -604,10 +604,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.01253083562287055</v>
+        <v>0.01256709280487609</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1436550075264826</v>
+        <v>0.1226164521011588</v>
       </c>
     </row>
     <row r="12">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.01228780937317299</v>
+        <v>0.01239059666452342</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1396199995524263</v>
+        <v>0.1427596505374125</v>
       </c>
     </row>
     <row r="13">
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.01256491548113831</v>
+        <v>0.0123644481119636</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1481170950278844</v>
+        <v>0.145558357442895</v>
       </c>
     </row>
     <row r="14">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0005596766602375532</v>
+        <v>0.000608160548798791</v>
       </c>
       <c r="D14" t="n">
-        <v>0.001834731448556565</v>
+        <v>0.001296064636210771</v>
       </c>
     </row>
     <row r="15">
@@ -668,10 +668,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0002900480617863152</v>
+        <v>0.0003124396153247265</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001247266616850887</v>
+        <v>0.001483203128796734</v>
       </c>
     </row>
     <row r="16">
@@ -684,10 +684,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0003092557635682169</v>
+        <v>0.0003302723021016852</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001505819991333027</v>
+        <v>0.001108160314201186</v>
       </c>
     </row>
     <row r="17">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0003494621268058936</v>
+        <v>0.000433828735928217</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001780643823958474</v>
+        <v>0.00112815075936689</v>
       </c>
     </row>
     <row r="18">
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0002924265756195233</v>
+        <v>0.0003149992916318397</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001593948597062941</v>
+        <v>0.001170478337795206</v>
       </c>
     </row>
     <row r="19">
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.0002823712707701305</v>
+        <v>0.0003277886522258473</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001429614913171438</v>
+        <v>0.001044605017403676</v>
       </c>
     </row>
     <row r="20">
@@ -748,10 +748,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0002974907370054559</v>
+        <v>0.0004421656007227832</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0009821898125316182</v>
+        <v>0.001069723850128892</v>
       </c>
     </row>
     <row r="21">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.0002985842547288534</v>
+        <v>0.0003975706855919569</v>
       </c>
       <c r="D21" t="n">
-        <v>0.001318276099133471</v>
+        <v>0.001298160995484317</v>
       </c>
     </row>
     <row r="22">
@@ -780,10 +780,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.0003194265029303831</v>
+        <v>0.0003774718655359434</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0009527312372795191</v>
+        <v>0.001116425797266707</v>
       </c>
     </row>
     <row r="23">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.0003392010495028369</v>
+        <v>0.0003876075928405642</v>
       </c>
       <c r="D23" t="n">
-        <v>0.001009131609525991</v>
+        <v>0.001304059355577122</v>
       </c>
     </row>
     <row r="24">
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.0002881129095267045</v>
+        <v>0.0003252687446086521</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001185480599317138</v>
+        <v>0.001244349771957487</v>
       </c>
     </row>
     <row r="25">
@@ -828,10 +828,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.0002888150980428167</v>
+        <v>0.0004261479472218413</v>
       </c>
       <c r="D25" t="n">
-        <v>0.001038946871955126</v>
+        <v>0.001102408387041204</v>
       </c>
     </row>
   </sheetData>

--- a/kombinasi-parameter.xlsx
+++ b/kombinasi-parameter.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -460,10 +460,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.01256600805647569</v>
+        <v>0.01257257536053658</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1290995419433672</v>
+        <v>0.139193594455719</v>
       </c>
     </row>
     <row r="3">
@@ -476,10 +476,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.01245881799506406</v>
+        <v>0.01242903992533684</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1480364705601784</v>
+        <v>0.1440912187099457</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.01238205773781424</v>
+        <v>0.01238826289772987</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1507691218428416</v>
+        <v>0.1428153514862061</v>
       </c>
     </row>
     <row r="5">
@@ -508,10 +508,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.01277194001188833</v>
+        <v>0.01247370149940252</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1254385291305307</v>
+        <v>0.136355459690094</v>
       </c>
     </row>
     <row r="6">
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0123957964999933</v>
+        <v>0.01248365268111229</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1426935898114557</v>
+        <v>0.1424856930971146</v>
       </c>
     </row>
     <row r="7">
@@ -540,10 +540,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.0129145505927401</v>
+        <v>0.01253197994083166</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1356652883225924</v>
+        <v>0.1478703916072845</v>
       </c>
     </row>
     <row r="8">
@@ -556,10 +556,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.0126269775608631</v>
+        <v>0.01262092217803001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1302944425850698</v>
+        <v>0.1291584670543671</v>
       </c>
     </row>
     <row r="9">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.01251337935586702</v>
+        <v>0.0124160423874855</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1449966747058581</v>
+        <v>0.1445454210042953</v>
       </c>
     </row>
     <row r="10">
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.01305218939095327</v>
+        <v>0.01249455194920301</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1349161402003406</v>
+        <v>0.1349464505910873</v>
       </c>
     </row>
     <row r="11">
@@ -604,10 +604,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.01256709280487609</v>
+        <v>0.01269859727472067</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1226164521011588</v>
+        <v>0.125056266784668</v>
       </c>
     </row>
     <row r="12">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.01239059666452342</v>
+        <v>0.01245330926030874</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1427596505374125</v>
+        <v>0.1408386826515198</v>
       </c>
     </row>
     <row r="13">
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0123644481119636</v>
+        <v>0.01235596928745508</v>
       </c>
       <c r="D13" t="n">
-        <v>0.145558357442895</v>
+        <v>0.145144909620285</v>
       </c>
     </row>
     <row r="14">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.000608160548798791</v>
+        <v>0.0005177620914764702</v>
       </c>
       <c r="D14" t="n">
-        <v>0.001296064636210771</v>
+        <v>0.002299975138157606</v>
       </c>
     </row>
     <row r="15">
@@ -668,10 +668,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0003124396153247265</v>
+        <v>0.0003413961676415056</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001483203128796734</v>
+        <v>0.00204571126960218</v>
       </c>
     </row>
     <row r="16">
@@ -684,10 +684,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0003302723021016852</v>
+        <v>0.0003489486698526889</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001108160314201186</v>
+        <v>0.002106364350765944</v>
       </c>
     </row>
     <row r="17">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.000433828735928217</v>
+        <v>0.0004138530348427594</v>
       </c>
       <c r="D17" t="n">
-        <v>0.00112815075936689</v>
+        <v>0.001386030693538487</v>
       </c>
     </row>
     <row r="18">
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0003149992916318397</v>
+        <v>0.0003267190186306834</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001170478337795206</v>
+        <v>0.001176348654553294</v>
       </c>
     </row>
     <row r="19">
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.0003277886522258473</v>
+        <v>0.0003170361742377281</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001044605017403676</v>
+        <v>0.001248573651537299</v>
       </c>
     </row>
     <row r="20">
@@ -748,10 +748,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0004421656007227832</v>
+        <v>0.000361703394446522</v>
       </c>
       <c r="D20" t="n">
-        <v>0.001069723850128892</v>
+        <v>0.00109473685733974</v>
       </c>
     </row>
     <row r="21">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.0003975706855919569</v>
+        <v>0.0003615591558627784</v>
       </c>
       <c r="D21" t="n">
-        <v>0.001298160995484317</v>
+        <v>0.001263272482901812</v>
       </c>
     </row>
     <row r="22">
@@ -780,10 +780,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.0003774718655359434</v>
+        <v>0.000360175792593509</v>
       </c>
       <c r="D22" t="n">
-        <v>0.001116425797266707</v>
+        <v>0.001081860158592463</v>
       </c>
     </row>
     <row r="23">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.0003876075928405642</v>
+        <v>0.0003583181241992861</v>
       </c>
       <c r="D23" t="n">
-        <v>0.001304059355577122</v>
+        <v>0.001165070338174701</v>
       </c>
     </row>
     <row r="24">
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.0003252687446086521</v>
+        <v>0.000338226614985615</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001244349771957487</v>
+        <v>0.001146560884080827</v>
       </c>
     </row>
     <row r="25">
@@ -828,13 +828,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.0004261479472218413</v>
+        <v>0.0003356568922754377</v>
       </c>
       <c r="D25" t="n">
-        <v>0.001102408387041204</v>
+        <v>0.00138041889294982</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>